--- a/FelipeNeto_3.xlsx
+++ b/FelipeNeto_3.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\INSPER\2 semestre\ciencias dos dados\Projeto_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA9A93-1C57-4C74-A36B-179F7EB8BA04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>Treinamento</t>
   </si>
@@ -87,9 +93,6 @@
 (x) felipe neto https://t.co/uhdoxwnbaq</t>
   </si>
   <si>
-    <t>@felipeneto quem é felipe neto?</t>
-  </si>
-  <si>
     <t>a chapa ciro presidente/felipe neto vice vai ganhando forma https://t.co/cu2nkgdk6c</t>
   </si>
   <si>
@@ -150,9 +153,6 @@
   </si>
   <si>
     <t>@sashidoce @luispocpoc @alepolo estamos num país democrático, onde cada um tem liberdade para pensar o que quiser. penso que o felipe neto, tem o objetivo de influenciar crianças a serem iguais a ele.</t>
-  </si>
-  <si>
-    <t>felipe neto?</t>
   </si>
   <si>
     <t>@adrianocezak @demori jordy já estava fugindo do felipe neto, só aproveitou o embalo.</t>
@@ -360,9 +360,6 @@
     <t>amo que nas fotos do @speeuh só tem fãs elogiando ele e do nada aparece eu flnd q ele é o felipe neto ou q tem um neném no umbigo dele</t>
   </si>
   <si>
-    <t>zetsubou no felipe neto</t>
-  </si>
-  <si>
     <t>é o fim dos tempos
 jean ui ui fazendo residência em harvard e possivelmente ministrará aulas sobre fake news, e discurso de ódio contra minorias
 daqui a pouco é o felipe neto, só q palestrando sobre como os pais contemporâneos devem doutrinar seus filhos
@@ -521,13 +518,7 @@
     <t>vereador posta vídeo de felipe neto com falas contra gays https://t.co/zp18sx1yjl</t>
   </si>
   <si>
-    <t>o felipe neto https://t.co/rkgu9d2ivu</t>
-  </si>
-  <si>
     <t>@rolandinho acho que quebra todos os recordes, em 2017 o felipe neto bateu o recorde que era 290 mil e ele conseguiu 316 mil, acho que de lá pra cá ninguém havia chegado à 1 milhão</t>
-  </si>
-  <si>
-    <t>@homemcordial felipe neto &amp;gt; conselho tutelar</t>
   </si>
   <si>
     <t>o assunto felipe neto me fez refletir sobre algumas coisas
@@ -586,15 +577,7 @@
 agora falando do felipe neto com ctz ele quis lacrar chamar atenção pagar um de adolescente rebelde sem</t>
   </si>
   <si>
-    <t>bolsonaro: a
-felipe neto:</t>
-  </si>
-  <si>
     <t>mais um tweet do felipe neto na minha tl e eu silencio ele</t>
-  </si>
-  <si>
-    <t>@carlosjordy 1°)quem é esse cara, felipe neto? nunca tinha ouvido falar da figura.
-2°)o esquerdinha não percebeu ainda, que o país  mudou, o governo mudou, não é mais aquela pouca vergonha do pt que só escandaliza tudo e a todos, pouco se importando com moral e bons costumes.#forafilepeneto</t>
   </si>
   <si>
     <t>@freedafahlo @trabalhoista quem provavelmente derrubou a conta dela foram os seguidores de felipe neto, sobre quem ela fez várias postagens desrespeitosas e preconceituosos. várias.
@@ -1028,12 +1011,15 @@
   <si>
     <t>@carlazambelli17 @mcrivella @jairbolsonaro fala algumas coisa agora, tem medo né, a saúde publica está uma merda o indíce da doença estão aumentando por culpa de vcs, ainda quer "culpa o pt" o "felipe neto" nisso. vai fazer algumas coisa ao invém de critica a orientaçao da pessoa https://t.co/4jfdjggppq</t>
   </si>
+  <si>
+    <t>cat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,11 +1082,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1142,7 +1136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1174,9 +1168,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1208,6 +1220,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1383,1534 +1413,2084 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>200</v>
+      <c r="B194">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/FelipeNeto_3.xlsx
+++ b/FelipeNeto_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\INSPER\2 semestre\ciencias dos dados\Projeto_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - Insper - Institudo de Ensino e Pesquisa\Desktop\Insper\2°Semestre\C.Dados\Projeto_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA9A93-1C57-4C74-A36B-179F7EB8BA04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B3CA9A93-1C57-4C74-A36B-179F7EB8BA04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F706F6DA-2375-4838-BB37-9120F46FB5FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="600" windowWidth="10290" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1012,7 +1012,7 @@
     <t>@carlazambelli17 @mcrivella @jairbolsonaro fala algumas coisa agora, tem medo né, a saúde publica está uma merda o indíce da doença estão aumentando por culpa de vcs, ainda quer "culpa o pt" o "felipe neto" nisso. vai fazer algumas coisa ao invém de critica a orientaçao da pessoa https://t.co/4jfdjggppq</t>
   </si>
   <si>
-    <t>cat</t>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
